--- a/data/raw/experimento_2.xlsx
+++ b/data/raw/experimento_2.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eileenltipoe/Desktop/CORE/Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{683771A8-BDB8-481A-956C-F3BD40AF896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1220" windowWidth="27900" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Public goods contributions" sheetId="1" r:id="rId1"/>
+    <sheet name="Contributions withoutpunishment" sheetId="1" r:id="rId1"/>
+    <sheet name="Contributions with punishment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -229,18 +231,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,39 +579,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="2" customWidth="1"/>
     <col min="12" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -662,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -715,7 +717,7 @@
         <v>8.2249999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -768,7 +770,7 @@
         <v>7.3250000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -821,7 +823,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -874,7 +876,7 @@
         <v>5.9749999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -927,7 +929,7 @@
         <v>5.4249999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -980,7 +982,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1192,620 +1194,248 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>15.411765098571777</v>
-      </c>
-      <c r="C17" s="5">
-        <v>9.4772729873657227</v>
-      </c>
-      <c r="D17" s="5">
-        <v>11.75</v>
-      </c>
-      <c r="E17" s="5">
-        <v>15.041666984558105</v>
-      </c>
-      <c r="F17" s="5">
-        <v>9.2115383148193359</v>
-      </c>
-      <c r="G17" s="5">
-        <v>10.763157844543457</v>
-      </c>
-      <c r="H17" s="5">
-        <v>13.22826099395752</v>
-      </c>
-      <c r="I17" s="5">
-        <v>16.017856597900391</v>
-      </c>
-      <c r="J17" s="5">
-        <v>12.050000190734863</v>
-      </c>
-      <c r="K17" s="5">
-        <v>9.8958330154418945</v>
-      </c>
-      <c r="L17" s="5">
-        <v>9.6904764175415039</v>
-      </c>
-      <c r="M17" s="5">
-        <v>6.1458334922790527</v>
-      </c>
-      <c r="N17" s="5">
-        <v>11.321428298950195</v>
-      </c>
-      <c r="O17" s="5">
-        <v>5.8181819915771484</v>
-      </c>
-      <c r="P17" s="5">
-        <v>6.546875</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>7.8499999046325684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5">
-        <v>16.970588684082031</v>
-      </c>
-      <c r="C18" s="5">
-        <v>9.9090909957885742</v>
-      </c>
-      <c r="D18" s="5">
-        <v>13.235294342041016</v>
-      </c>
-      <c r="E18" s="5">
-        <v>16.71875</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10.307692527770996</v>
-      </c>
-      <c r="G18" s="5">
-        <v>11.302631378173828</v>
-      </c>
-      <c r="H18" s="5">
-        <v>15.02173900604248</v>
-      </c>
-      <c r="I18" s="5">
-        <v>17.821428298950195</v>
-      </c>
-      <c r="J18" s="5">
-        <v>13.466666221618652</v>
-      </c>
-      <c r="K18" s="5">
-        <v>11.0625</v>
-      </c>
-      <c r="L18" s="5">
-        <v>12.107142448425293</v>
-      </c>
-      <c r="M18" s="5">
-        <v>6.7708334922790527</v>
-      </c>
-      <c r="N18" s="5">
-        <v>13.892857551574707</v>
-      </c>
-      <c r="O18" s="5">
-        <v>5.6363635063171387</v>
-      </c>
-      <c r="P18" s="5">
-        <v>6.578125</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>10.475000381469727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
-        <v>17.735294342041016</v>
-      </c>
-      <c r="C19" s="5">
-        <v>11.840909004211426</v>
-      </c>
-      <c r="D19" s="5">
-        <v>12.897058486938477</v>
-      </c>
-      <c r="E19" s="5">
-        <v>17.572916030883789</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10.057692527770996</v>
-      </c>
-      <c r="G19" s="5">
-        <v>11.743420600891113</v>
-      </c>
-      <c r="H19" s="5">
-        <v>15.77173900604248</v>
-      </c>
-      <c r="I19" s="5">
-        <v>18.553571701049805</v>
-      </c>
-      <c r="J19" s="5">
-        <v>14.083333015441895</v>
-      </c>
-      <c r="K19" s="5">
-        <v>12.3125</v>
-      </c>
-      <c r="L19" s="5">
-        <v>13.273809432983398</v>
-      </c>
-      <c r="M19" s="5">
-        <v>6.7083334922790527</v>
-      </c>
-      <c r="N19" s="5">
-        <v>14.696428298950195</v>
-      </c>
-      <c r="O19" s="5">
-        <v>5.8636364936828613</v>
-      </c>
-      <c r="P19" s="5">
-        <v>6.71875</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>12.800000190734863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5">
-        <v>18.161764144897461</v>
-      </c>
-      <c r="C20" s="5">
-        <v>11.454545021057129</v>
-      </c>
-      <c r="D20" s="5">
-        <v>13.382352828979492</v>
-      </c>
-      <c r="E20" s="5">
-        <v>17.427083969116211</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>11.763157844543457</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16.260869979858398</v>
-      </c>
-      <c r="I20" s="5">
-        <v>18.875</v>
-      </c>
-      <c r="J20" s="5">
-        <v>14.033333778381348</v>
-      </c>
-      <c r="K20" s="5">
-        <v>13.375</v>
-      </c>
-      <c r="L20" s="5">
-        <v>14.107142448425293</v>
-      </c>
-      <c r="M20" s="5">
-        <v>7.9375</v>
-      </c>
-      <c r="N20" s="5">
-        <v>14.410714149475098</v>
-      </c>
-      <c r="O20" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="P20" s="5">
-        <v>6.453125</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>13.574999809265137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5">
-        <v>18.367647171020508</v>
-      </c>
-      <c r="C21" s="5">
-        <v>12.681818008422852</v>
-      </c>
-      <c r="D21" s="5">
-        <v>13.970588684082031</v>
-      </c>
-      <c r="E21" s="5">
-        <v>17.645833969116211</v>
-      </c>
-      <c r="F21" s="5">
-        <v>9.5769233703613281</v>
-      </c>
-      <c r="G21" s="5">
-        <v>11.190789222717285</v>
-      </c>
-      <c r="H21" s="5">
-        <v>16.358695983886719</v>
-      </c>
-      <c r="I21" s="5">
-        <v>18.232143402099609</v>
-      </c>
-      <c r="J21" s="5">
-        <v>15.416666984558105</v>
-      </c>
-      <c r="K21" s="5">
-        <v>14.354166984558105</v>
-      </c>
-      <c r="L21" s="5">
-        <v>14.392857551574707</v>
-      </c>
-      <c r="M21" s="5">
-        <v>7.6041665077209473</v>
-      </c>
-      <c r="N21" s="5">
-        <v>15.267857551574707</v>
-      </c>
-      <c r="O21" s="5">
-        <v>6.2272725105285645</v>
-      </c>
-      <c r="P21" s="5">
-        <v>6.96875</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>15.050000190734863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5">
-        <v>18.691177368164062</v>
-      </c>
-      <c r="C22" s="5">
-        <v>11.75</v>
-      </c>
-      <c r="D22" s="5">
-        <v>13.014705657958984</v>
-      </c>
-      <c r="E22" s="5">
-        <v>17.34375</v>
-      </c>
-      <c r="F22" s="5">
-        <v>9.9038457870483398</v>
-      </c>
-      <c r="G22" s="5">
-        <v>12.184210777282715</v>
-      </c>
-      <c r="H22" s="5">
-        <v>16.619565963745117</v>
-      </c>
-      <c r="I22" s="5">
-        <v>18.553571701049805</v>
-      </c>
-      <c r="J22" s="5">
-        <v>14.416666984558105</v>
-      </c>
-      <c r="K22" s="5">
-        <v>15.427083015441895</v>
-      </c>
-      <c r="L22" s="5">
-        <v>15.285714149475098</v>
-      </c>
-      <c r="M22" s="5">
-        <v>7.6041665077209473</v>
-      </c>
-      <c r="N22" s="5">
-        <v>16.446428298950195</v>
-      </c>
-      <c r="O22" s="5">
-        <v>5.8636364936828613</v>
-      </c>
-      <c r="P22" s="5">
-        <v>7.15625</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>15.774999618530273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5">
-        <v>18.735294342041016</v>
-      </c>
-      <c r="C23" s="5">
-        <v>11.227272987365723</v>
-      </c>
-      <c r="D23" s="5">
-        <v>13.176470756530762</v>
-      </c>
-      <c r="E23" s="5">
-        <v>16.791666030883789</v>
-      </c>
-      <c r="F23" s="5">
-        <v>10.269230842590332</v>
-      </c>
-      <c r="G23" s="5">
-        <v>12.151315689086914</v>
-      </c>
-      <c r="H23" s="5">
-        <v>17.195652008056641</v>
-      </c>
-      <c r="I23" s="5">
-        <v>18.678571701049805</v>
-      </c>
-      <c r="J23" s="5">
-        <v>15.216666221618652</v>
-      </c>
-      <c r="K23" s="5">
-        <v>15.6875</v>
-      </c>
-      <c r="L23" s="5">
-        <v>16.047618865966797</v>
-      </c>
-      <c r="M23" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="N23" s="5">
-        <v>16.375</v>
-      </c>
-      <c r="O23" s="5">
-        <v>5.6363635063171387</v>
-      </c>
-      <c r="P23" s="5">
-        <v>7.53125</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>16.225000381469727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5">
-        <v>18.323530197143555</v>
-      </c>
-      <c r="C24" s="5">
-        <v>10.681818008422852</v>
-      </c>
-      <c r="D24" s="5">
-        <v>13.691176414489746</v>
-      </c>
-      <c r="E24" s="5">
-        <v>16.75</v>
-      </c>
-      <c r="F24" s="5">
-        <v>10.84615421295166</v>
-      </c>
-      <c r="G24" s="5">
-        <v>12.184210777282715</v>
-      </c>
-      <c r="H24" s="5">
-        <v>17.032608032226562</v>
-      </c>
-      <c r="I24" s="5">
-        <v>18.053571701049805</v>
-      </c>
-      <c r="J24" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="K24" s="5">
-        <v>15.979166984558105</v>
-      </c>
-      <c r="L24" s="5">
-        <v>16.809524536132812</v>
-      </c>
-      <c r="M24" s="5">
-        <v>6.375</v>
-      </c>
-      <c r="N24" s="5">
-        <v>16.732143402099609</v>
-      </c>
-      <c r="O24" s="5">
-        <v>4.8409090042114258</v>
-      </c>
-      <c r="P24" s="5">
-        <v>7.84375</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>16.524999618530273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5">
-        <v>18.073530197143555</v>
-      </c>
-      <c r="C25" s="5">
-        <v>9.7045450210571289</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12.411765098571777</v>
-      </c>
-      <c r="E25" s="5">
-        <v>16.885416030883789</v>
-      </c>
-      <c r="F25" s="5">
-        <v>9.7115383148193359</v>
-      </c>
-      <c r="G25" s="5">
-        <v>12.388157844543457</v>
-      </c>
-      <c r="H25" s="5">
-        <v>17.565217971801758</v>
-      </c>
-      <c r="I25" s="5">
-        <v>18.178571701049805</v>
-      </c>
-      <c r="J25" s="5">
-        <v>16</v>
-      </c>
-      <c r="K25" s="5">
-        <v>15.854166984558105</v>
-      </c>
-      <c r="L25" s="5">
-        <v>17.285715103149414</v>
-      </c>
-      <c r="M25" s="5">
-        <v>7.125</v>
-      </c>
-      <c r="N25" s="5">
-        <v>16.303571701049805</v>
-      </c>
-      <c r="O25" s="5">
-        <v>4.6818180084228516</v>
-      </c>
-      <c r="P25" s="5">
-        <v>7.84375</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>17.100000381469727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5">
-        <v>17.014705657958984</v>
-      </c>
-      <c r="C26" s="5">
-        <v>10.068181991577148</v>
-      </c>
-      <c r="D26" s="5">
-        <v>11.70588207244873</v>
-      </c>
-      <c r="E26" s="5">
-        <v>15.15625</v>
-      </c>
-      <c r="F26" s="5">
-        <v>9.0961542129516602</v>
-      </c>
-      <c r="G26" s="5">
-        <v>11.572368621826172</v>
-      </c>
-      <c r="H26" s="5">
-        <v>16.456521987915039</v>
-      </c>
-      <c r="I26" s="5">
-        <v>16.839284896850586</v>
-      </c>
-      <c r="J26" s="5">
-        <v>14.683333396911621</v>
-      </c>
-      <c r="K26" s="5">
-        <v>14.8125</v>
-      </c>
-      <c r="L26" s="5">
-        <v>17.511905670166016</v>
-      </c>
-      <c r="M26" s="5">
-        <v>6.625</v>
-      </c>
-      <c r="N26" s="5">
-        <v>14.696428298950195</v>
-      </c>
-      <c r="O26" s="5">
-        <v>6.2045454978942871</v>
-      </c>
-      <c r="P26" s="5">
-        <v>7.625</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>15.850000381469727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="D33:E35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:E35">
     <sortCondition ref="D33:D35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1816,4 +1446,623 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB696BD4-D355-4CC3-8677-CAC8EB89FD9A}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15.411765098571777</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9.4772729873657227</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15.041666984558105</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9.2115383148193359</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10.763157844543457</v>
+      </c>
+      <c r="H3" s="5">
+        <v>13.22826099395752</v>
+      </c>
+      <c r="I3" s="5">
+        <v>16.017856597900391</v>
+      </c>
+      <c r="J3" s="5">
+        <v>12.050000190734863</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9.8958330154418945</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9.6904764175415039</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6.1458334922790527</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11.321428298950195</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5.8181819915771484</v>
+      </c>
+      <c r="P3" s="5">
+        <v>6.546875</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7.8499999046325684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>16.970588684082031</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9.9090909957885742</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13.235294342041016</v>
+      </c>
+      <c r="E4" s="5">
+        <v>16.71875</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10.307692527770996</v>
+      </c>
+      <c r="G4" s="5">
+        <v>11.302631378173828</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15.02173900604248</v>
+      </c>
+      <c r="I4" s="5">
+        <v>17.821428298950195</v>
+      </c>
+      <c r="J4" s="5">
+        <v>13.466666221618652</v>
+      </c>
+      <c r="K4" s="5">
+        <v>11.0625</v>
+      </c>
+      <c r="L4" s="5">
+        <v>12.107142448425293</v>
+      </c>
+      <c r="M4" s="5">
+        <v>6.7708334922790527</v>
+      </c>
+      <c r="N4" s="5">
+        <v>13.892857551574707</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5.6363635063171387</v>
+      </c>
+      <c r="P4" s="5">
+        <v>6.578125</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>10.475000381469727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17.735294342041016</v>
+      </c>
+      <c r="C5" s="5">
+        <v>11.840909004211426</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12.897058486938477</v>
+      </c>
+      <c r="E5" s="5">
+        <v>17.572916030883789</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10.057692527770996</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11.743420600891113</v>
+      </c>
+      <c r="H5" s="5">
+        <v>15.77173900604248</v>
+      </c>
+      <c r="I5" s="5">
+        <v>18.553571701049805</v>
+      </c>
+      <c r="J5" s="5">
+        <v>14.083333015441895</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12.3125</v>
+      </c>
+      <c r="L5" s="5">
+        <v>13.273809432983398</v>
+      </c>
+      <c r="M5" s="5">
+        <v>6.7083334922790527</v>
+      </c>
+      <c r="N5" s="5">
+        <v>14.696428298950195</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5.8636364936828613</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6.71875</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>12.800000190734863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18.161764144897461</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11.454545021057129</v>
+      </c>
+      <c r="D6" s="5">
+        <v>13.382352828979492</v>
+      </c>
+      <c r="E6" s="5">
+        <v>17.427083969116211</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11.763157844543457</v>
+      </c>
+      <c r="H6" s="5">
+        <v>16.260869979858398</v>
+      </c>
+      <c r="I6" s="5">
+        <v>18.875</v>
+      </c>
+      <c r="J6" s="5">
+        <v>14.033333778381348</v>
+      </c>
+      <c r="K6" s="5">
+        <v>13.375</v>
+      </c>
+      <c r="L6" s="5">
+        <v>14.107142448425293</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7.9375</v>
+      </c>
+      <c r="N6" s="5">
+        <v>14.410714149475098</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="P6" s="5">
+        <v>6.453125</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>13.574999809265137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18.367647171020508</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12.681818008422852</v>
+      </c>
+      <c r="D7" s="5">
+        <v>13.970588684082031</v>
+      </c>
+      <c r="E7" s="5">
+        <v>17.645833969116211</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.5769233703613281</v>
+      </c>
+      <c r="G7" s="5">
+        <v>11.190789222717285</v>
+      </c>
+      <c r="H7" s="5">
+        <v>16.358695983886719</v>
+      </c>
+      <c r="I7" s="5">
+        <v>18.232143402099609</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15.416666984558105</v>
+      </c>
+      <c r="K7" s="5">
+        <v>14.354166984558105</v>
+      </c>
+      <c r="L7" s="5">
+        <v>14.392857551574707</v>
+      </c>
+      <c r="M7" s="5">
+        <v>7.6041665077209473</v>
+      </c>
+      <c r="N7" s="5">
+        <v>15.267857551574707</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6.2272725105285645</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6.96875</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>15.050000190734863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>18.691177368164063</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="D8" s="5">
+        <v>13.014705657958984</v>
+      </c>
+      <c r="E8" s="5">
+        <v>17.34375</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.9038457870483398</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12.184210777282715</v>
+      </c>
+      <c r="H8" s="5">
+        <v>16.619565963745117</v>
+      </c>
+      <c r="I8" s="5">
+        <v>18.553571701049805</v>
+      </c>
+      <c r="J8" s="5">
+        <v>14.416666984558105</v>
+      </c>
+      <c r="K8" s="5">
+        <v>15.427083015441895</v>
+      </c>
+      <c r="L8" s="5">
+        <v>15.285714149475098</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7.6041665077209473</v>
+      </c>
+      <c r="N8" s="5">
+        <v>16.446428298950195</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5.8636364936828613</v>
+      </c>
+      <c r="P8" s="5">
+        <v>7.15625</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>15.774999618530273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>18.735294342041016</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11.227272987365723</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13.176470756530762</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16.791666030883789</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10.269230842590332</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12.151315689086914</v>
+      </c>
+      <c r="H9" s="5">
+        <v>17.195652008056641</v>
+      </c>
+      <c r="I9" s="5">
+        <v>18.678571701049805</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15.216666221618652</v>
+      </c>
+      <c r="K9" s="5">
+        <v>15.6875</v>
+      </c>
+      <c r="L9" s="5">
+        <v>16.047618865966797</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16.375</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5.6363635063171387</v>
+      </c>
+      <c r="P9" s="5">
+        <v>7.53125</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>16.225000381469727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>18.323530197143555</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10.681818008422852</v>
+      </c>
+      <c r="D10" s="5">
+        <v>13.691176414489746</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16.75</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10.84615421295166</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12.184210777282715</v>
+      </c>
+      <c r="H10" s="5">
+        <v>17.032608032226563</v>
+      </c>
+      <c r="I10" s="5">
+        <v>18.053571701049805</v>
+      </c>
+      <c r="J10" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>15.979166984558105</v>
+      </c>
+      <c r="L10" s="5">
+        <v>16.809524536132813</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.375</v>
+      </c>
+      <c r="N10" s="5">
+        <v>16.732143402099609</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4.8409090042114258</v>
+      </c>
+      <c r="P10" s="5">
+        <v>7.84375</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>16.524999618530273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>18.073530197143555</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9.7045450210571289</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12.411765098571777</v>
+      </c>
+      <c r="E11" s="5">
+        <v>16.885416030883789</v>
+      </c>
+      <c r="F11" s="5">
+        <v>9.7115383148193359</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12.388157844543457</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17.565217971801758</v>
+      </c>
+      <c r="I11" s="5">
+        <v>18.178571701049805</v>
+      </c>
+      <c r="J11" s="5">
+        <v>16</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15.854166984558105</v>
+      </c>
+      <c r="L11" s="5">
+        <v>17.285715103149414</v>
+      </c>
+      <c r="M11" s="5">
+        <v>7.125</v>
+      </c>
+      <c r="N11" s="5">
+        <v>16.303571701049805</v>
+      </c>
+      <c r="O11" s="5">
+        <v>4.6818180084228516</v>
+      </c>
+      <c r="P11" s="5">
+        <v>7.84375</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>17.100000381469727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>17.014705657958984</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10.068181991577148</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11.70588207244873</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15.15625</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9.0961542129516602</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11.572368621826172</v>
+      </c>
+      <c r="H12" s="5">
+        <v>16.456521987915039</v>
+      </c>
+      <c r="I12" s="5">
+        <v>16.839284896850586</v>
+      </c>
+      <c r="J12" s="5">
+        <v>14.683333396911621</v>
+      </c>
+      <c r="K12" s="5">
+        <v>14.8125</v>
+      </c>
+      <c r="L12" s="5">
+        <v>17.511905670166016</v>
+      </c>
+      <c r="M12" s="5">
+        <v>6.625</v>
+      </c>
+      <c r="N12" s="5">
+        <v>14.696428298950195</v>
+      </c>
+      <c r="O12" s="5">
+        <v>6.2045454978942871</v>
+      </c>
+      <c r="P12" s="5">
+        <v>7.625</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>15.850000381469727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/experimento_2.xlsx
+++ b/data/raw/experimento_2.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eileenltipoe/Desktop/CORE/Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683771A8-BDB8-481A-956C-F3BD40AF896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1220" windowWidth="27900" windowHeight="15140" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Contributions withoutpunishment" sheetId="1" r:id="rId1"/>
-    <sheet name="Contributions with punishment" sheetId="2" r:id="rId2"/>
+    <sheet name="Public goods contributions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -88,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -231,18 +229,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,39 +577,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="2" customWidth="1"/>
     <col min="12" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -664,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -717,7 +715,7 @@
         <v>8.2249999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -770,7 +768,7 @@
         <v>7.3250000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -823,7 +821,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -876,7 +874,7 @@
         <v>5.9749999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -929,7 +927,7 @@
         <v>5.4249999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -982,7 +980,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1194,248 +1192,620 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15.411765098571777</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.4772729873657227</v>
+      </c>
+      <c r="D17" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15.041666984558105</v>
+      </c>
+      <c r="F17" s="5">
+        <v>9.2115383148193359</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10.763157844543457</v>
+      </c>
+      <c r="H17" s="5">
+        <v>13.22826099395752</v>
+      </c>
+      <c r="I17" s="5">
+        <v>16.017856597900391</v>
+      </c>
+      <c r="J17" s="5">
+        <v>12.050000190734863</v>
+      </c>
+      <c r="K17" s="5">
+        <v>9.8958330154418945</v>
+      </c>
+      <c r="L17" s="5">
+        <v>9.6904764175415039</v>
+      </c>
+      <c r="M17" s="5">
+        <v>6.1458334922790527</v>
+      </c>
+      <c r="N17" s="5">
+        <v>11.321428298950195</v>
+      </c>
+      <c r="O17" s="5">
+        <v>5.8181819915771484</v>
+      </c>
+      <c r="P17" s="5">
+        <v>6.546875</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>7.8499999046325684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16.970588684082031</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9.9090909957885742</v>
+      </c>
+      <c r="D18" s="5">
+        <v>13.235294342041016</v>
+      </c>
+      <c r="E18" s="5">
+        <v>16.71875</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10.307692527770996</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11.302631378173828</v>
+      </c>
+      <c r="H18" s="5">
+        <v>15.02173900604248</v>
+      </c>
+      <c r="I18" s="5">
+        <v>17.821428298950195</v>
+      </c>
+      <c r="J18" s="5">
+        <v>13.466666221618652</v>
+      </c>
+      <c r="K18" s="5">
+        <v>11.0625</v>
+      </c>
+      <c r="L18" s="5">
+        <v>12.107142448425293</v>
+      </c>
+      <c r="M18" s="5">
+        <v>6.7708334922790527</v>
+      </c>
+      <c r="N18" s="5">
+        <v>13.892857551574707</v>
+      </c>
+      <c r="O18" s="5">
+        <v>5.6363635063171387</v>
+      </c>
+      <c r="P18" s="5">
+        <v>6.578125</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>10.475000381469727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>17.735294342041016</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11.840909004211426</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12.897058486938477</v>
+      </c>
+      <c r="E19" s="5">
+        <v>17.572916030883789</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10.057692527770996</v>
+      </c>
+      <c r="G19" s="5">
+        <v>11.743420600891113</v>
+      </c>
+      <c r="H19" s="5">
+        <v>15.77173900604248</v>
+      </c>
+      <c r="I19" s="5">
+        <v>18.553571701049805</v>
+      </c>
+      <c r="J19" s="5">
+        <v>14.083333015441895</v>
+      </c>
+      <c r="K19" s="5">
+        <v>12.3125</v>
+      </c>
+      <c r="L19" s="5">
+        <v>13.273809432983398</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6.7083334922790527</v>
+      </c>
+      <c r="N19" s="5">
+        <v>14.696428298950195</v>
+      </c>
+      <c r="O19" s="5">
+        <v>5.8636364936828613</v>
+      </c>
+      <c r="P19" s="5">
+        <v>6.71875</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>12.800000190734863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18.161764144897461</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11.454545021057129</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13.382352828979492</v>
+      </c>
+      <c r="E20" s="5">
+        <v>17.427083969116211</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11.763157844543457</v>
+      </c>
+      <c r="H20" s="5">
+        <v>16.260869979858398</v>
+      </c>
+      <c r="I20" s="5">
+        <v>18.875</v>
+      </c>
+      <c r="J20" s="5">
+        <v>14.033333778381348</v>
+      </c>
+      <c r="K20" s="5">
+        <v>13.375</v>
+      </c>
+      <c r="L20" s="5">
+        <v>14.107142448425293</v>
+      </c>
+      <c r="M20" s="5">
+        <v>7.9375</v>
+      </c>
+      <c r="N20" s="5">
+        <v>14.410714149475098</v>
+      </c>
+      <c r="O20" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="P20" s="5">
+        <v>6.453125</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>13.574999809265137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18.367647171020508</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12.681818008422852</v>
+      </c>
+      <c r="D21" s="5">
+        <v>13.970588684082031</v>
+      </c>
+      <c r="E21" s="5">
+        <v>17.645833969116211</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9.5769233703613281</v>
+      </c>
+      <c r="G21" s="5">
+        <v>11.190789222717285</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16.358695983886719</v>
+      </c>
+      <c r="I21" s="5">
+        <v>18.232143402099609</v>
+      </c>
+      <c r="J21" s="5">
+        <v>15.416666984558105</v>
+      </c>
+      <c r="K21" s="5">
+        <v>14.354166984558105</v>
+      </c>
+      <c r="L21" s="5">
+        <v>14.392857551574707</v>
+      </c>
+      <c r="M21" s="5">
+        <v>7.6041665077209473</v>
+      </c>
+      <c r="N21" s="5">
+        <v>15.267857551574707</v>
+      </c>
+      <c r="O21" s="5">
+        <v>6.2272725105285645</v>
+      </c>
+      <c r="P21" s="5">
+        <v>6.96875</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>15.050000190734863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18.691177368164062</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>13.014705657958984</v>
+      </c>
+      <c r="E22" s="5">
+        <v>17.34375</v>
+      </c>
+      <c r="F22" s="5">
+        <v>9.9038457870483398</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12.184210777282715</v>
+      </c>
+      <c r="H22" s="5">
+        <v>16.619565963745117</v>
+      </c>
+      <c r="I22" s="5">
+        <v>18.553571701049805</v>
+      </c>
+      <c r="J22" s="5">
+        <v>14.416666984558105</v>
+      </c>
+      <c r="K22" s="5">
+        <v>15.427083015441895</v>
+      </c>
+      <c r="L22" s="5">
+        <v>15.285714149475098</v>
+      </c>
+      <c r="M22" s="5">
+        <v>7.6041665077209473</v>
+      </c>
+      <c r="N22" s="5">
+        <v>16.446428298950195</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5.8636364936828613</v>
+      </c>
+      <c r="P22" s="5">
+        <v>7.15625</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>15.774999618530273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18.735294342041016</v>
+      </c>
+      <c r="C23" s="5">
+        <v>11.227272987365723</v>
+      </c>
+      <c r="D23" s="5">
+        <v>13.176470756530762</v>
+      </c>
+      <c r="E23" s="5">
+        <v>16.791666030883789</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10.269230842590332</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12.151315689086914</v>
+      </c>
+      <c r="H23" s="5">
+        <v>17.195652008056641</v>
+      </c>
+      <c r="I23" s="5">
+        <v>18.678571701049805</v>
+      </c>
+      <c r="J23" s="5">
+        <v>15.216666221618652</v>
+      </c>
+      <c r="K23" s="5">
+        <v>15.6875</v>
+      </c>
+      <c r="L23" s="5">
+        <v>16.047618865966797</v>
+      </c>
+      <c r="M23" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="N23" s="5">
+        <v>16.375</v>
+      </c>
+      <c r="O23" s="5">
+        <v>5.6363635063171387</v>
+      </c>
+      <c r="P23" s="5">
+        <v>7.53125</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>16.225000381469727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18.323530197143555</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10.681818008422852</v>
+      </c>
+      <c r="D24" s="5">
+        <v>13.691176414489746</v>
+      </c>
+      <c r="E24" s="5">
+        <v>16.75</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10.84615421295166</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12.184210777282715</v>
+      </c>
+      <c r="H24" s="5">
+        <v>17.032608032226562</v>
+      </c>
+      <c r="I24" s="5">
+        <v>18.053571701049805</v>
+      </c>
+      <c r="J24" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>15.979166984558105</v>
+      </c>
+      <c r="L24" s="5">
+        <v>16.809524536132812</v>
+      </c>
+      <c r="M24" s="5">
+        <v>6.375</v>
+      </c>
+      <c r="N24" s="5">
+        <v>16.732143402099609</v>
+      </c>
+      <c r="O24" s="5">
+        <v>4.8409090042114258</v>
+      </c>
+      <c r="P24" s="5">
+        <v>7.84375</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>16.524999618530273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>18.073530197143555</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9.7045450210571289</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12.411765098571777</v>
+      </c>
+      <c r="E25" s="5">
+        <v>16.885416030883789</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9.7115383148193359</v>
+      </c>
+      <c r="G25" s="5">
+        <v>12.388157844543457</v>
+      </c>
+      <c r="H25" s="5">
+        <v>17.565217971801758</v>
+      </c>
+      <c r="I25" s="5">
+        <v>18.178571701049805</v>
+      </c>
+      <c r="J25" s="5">
+        <v>16</v>
+      </c>
+      <c r="K25" s="5">
+        <v>15.854166984558105</v>
+      </c>
+      <c r="L25" s="5">
+        <v>17.285715103149414</v>
+      </c>
+      <c r="M25" s="5">
+        <v>7.125</v>
+      </c>
+      <c r="N25" s="5">
+        <v>16.303571701049805</v>
+      </c>
+      <c r="O25" s="5">
+        <v>4.6818180084228516</v>
+      </c>
+      <c r="P25" s="5">
+        <v>7.84375</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>17.100000381469727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>17.014705657958984</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10.068181991577148</v>
+      </c>
+      <c r="D26" s="5">
+        <v>11.70588207244873</v>
+      </c>
+      <c r="E26" s="5">
+        <v>15.15625</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9.0961542129516602</v>
+      </c>
+      <c r="G26" s="5">
+        <v>11.572368621826172</v>
+      </c>
+      <c r="H26" s="5">
+        <v>16.456521987915039</v>
+      </c>
+      <c r="I26" s="5">
+        <v>16.839284896850586</v>
+      </c>
+      <c r="J26" s="5">
+        <v>14.683333396911621</v>
+      </c>
+      <c r="K26" s="5">
+        <v>14.8125</v>
+      </c>
+      <c r="L26" s="5">
+        <v>17.511905670166016</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6.625</v>
+      </c>
+      <c r="N26" s="5">
+        <v>14.696428298950195</v>
+      </c>
+      <c r="O26" s="5">
+        <v>6.2045454978942871</v>
+      </c>
+      <c r="P26" s="5">
+        <v>7.625</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>15.850000381469727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:E35">
+  <sortState ref="D33:E35">
     <sortCondition ref="D33:D35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1446,623 +1816,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB696BD4-D355-4CC3-8677-CAC8EB89FD9A}">
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>15.411765098571777</v>
-      </c>
-      <c r="C3" s="5">
-        <v>9.4772729873657227</v>
-      </c>
-      <c r="D3" s="5">
-        <v>11.75</v>
-      </c>
-      <c r="E3" s="5">
-        <v>15.041666984558105</v>
-      </c>
-      <c r="F3" s="5">
-        <v>9.2115383148193359</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10.763157844543457</v>
-      </c>
-      <c r="H3" s="5">
-        <v>13.22826099395752</v>
-      </c>
-      <c r="I3" s="5">
-        <v>16.017856597900391</v>
-      </c>
-      <c r="J3" s="5">
-        <v>12.050000190734863</v>
-      </c>
-      <c r="K3" s="5">
-        <v>9.8958330154418945</v>
-      </c>
-      <c r="L3" s="5">
-        <v>9.6904764175415039</v>
-      </c>
-      <c r="M3" s="5">
-        <v>6.1458334922790527</v>
-      </c>
-      <c r="N3" s="5">
-        <v>11.321428298950195</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5.8181819915771484</v>
-      </c>
-      <c r="P3" s="5">
-        <v>6.546875</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>7.8499999046325684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>16.970588684082031</v>
-      </c>
-      <c r="C4" s="5">
-        <v>9.9090909957885742</v>
-      </c>
-      <c r="D4" s="5">
-        <v>13.235294342041016</v>
-      </c>
-      <c r="E4" s="5">
-        <v>16.71875</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10.307692527770996</v>
-      </c>
-      <c r="G4" s="5">
-        <v>11.302631378173828</v>
-      </c>
-      <c r="H4" s="5">
-        <v>15.02173900604248</v>
-      </c>
-      <c r="I4" s="5">
-        <v>17.821428298950195</v>
-      </c>
-      <c r="J4" s="5">
-        <v>13.466666221618652</v>
-      </c>
-      <c r="K4" s="5">
-        <v>11.0625</v>
-      </c>
-      <c r="L4" s="5">
-        <v>12.107142448425293</v>
-      </c>
-      <c r="M4" s="5">
-        <v>6.7708334922790527</v>
-      </c>
-      <c r="N4" s="5">
-        <v>13.892857551574707</v>
-      </c>
-      <c r="O4" s="5">
-        <v>5.6363635063171387</v>
-      </c>
-      <c r="P4" s="5">
-        <v>6.578125</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>10.475000381469727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>17.735294342041016</v>
-      </c>
-      <c r="C5" s="5">
-        <v>11.840909004211426</v>
-      </c>
-      <c r="D5" s="5">
-        <v>12.897058486938477</v>
-      </c>
-      <c r="E5" s="5">
-        <v>17.572916030883789</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10.057692527770996</v>
-      </c>
-      <c r="G5" s="5">
-        <v>11.743420600891113</v>
-      </c>
-      <c r="H5" s="5">
-        <v>15.77173900604248</v>
-      </c>
-      <c r="I5" s="5">
-        <v>18.553571701049805</v>
-      </c>
-      <c r="J5" s="5">
-        <v>14.083333015441895</v>
-      </c>
-      <c r="K5" s="5">
-        <v>12.3125</v>
-      </c>
-      <c r="L5" s="5">
-        <v>13.273809432983398</v>
-      </c>
-      <c r="M5" s="5">
-        <v>6.7083334922790527</v>
-      </c>
-      <c r="N5" s="5">
-        <v>14.696428298950195</v>
-      </c>
-      <c r="O5" s="5">
-        <v>5.8636364936828613</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6.71875</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>12.800000190734863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>18.161764144897461</v>
-      </c>
-      <c r="C6" s="5">
-        <v>11.454545021057129</v>
-      </c>
-      <c r="D6" s="5">
-        <v>13.382352828979492</v>
-      </c>
-      <c r="E6" s="5">
-        <v>17.427083969116211</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <v>11.763157844543457</v>
-      </c>
-      <c r="H6" s="5">
-        <v>16.260869979858398</v>
-      </c>
-      <c r="I6" s="5">
-        <v>18.875</v>
-      </c>
-      <c r="J6" s="5">
-        <v>14.033333778381348</v>
-      </c>
-      <c r="K6" s="5">
-        <v>13.375</v>
-      </c>
-      <c r="L6" s="5">
-        <v>14.107142448425293</v>
-      </c>
-      <c r="M6" s="5">
-        <v>7.9375</v>
-      </c>
-      <c r="N6" s="5">
-        <v>14.410714149475098</v>
-      </c>
-      <c r="O6" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="P6" s="5">
-        <v>6.453125</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>13.574999809265137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>18.367647171020508</v>
-      </c>
-      <c r="C7" s="5">
-        <v>12.681818008422852</v>
-      </c>
-      <c r="D7" s="5">
-        <v>13.970588684082031</v>
-      </c>
-      <c r="E7" s="5">
-        <v>17.645833969116211</v>
-      </c>
-      <c r="F7" s="5">
-        <v>9.5769233703613281</v>
-      </c>
-      <c r="G7" s="5">
-        <v>11.190789222717285</v>
-      </c>
-      <c r="H7" s="5">
-        <v>16.358695983886719</v>
-      </c>
-      <c r="I7" s="5">
-        <v>18.232143402099609</v>
-      </c>
-      <c r="J7" s="5">
-        <v>15.416666984558105</v>
-      </c>
-      <c r="K7" s="5">
-        <v>14.354166984558105</v>
-      </c>
-      <c r="L7" s="5">
-        <v>14.392857551574707</v>
-      </c>
-      <c r="M7" s="5">
-        <v>7.6041665077209473</v>
-      </c>
-      <c r="N7" s="5">
-        <v>15.267857551574707</v>
-      </c>
-      <c r="O7" s="5">
-        <v>6.2272725105285645</v>
-      </c>
-      <c r="P7" s="5">
-        <v>6.96875</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>15.050000190734863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>18.691177368164063</v>
-      </c>
-      <c r="C8" s="5">
-        <v>11.75</v>
-      </c>
-      <c r="D8" s="5">
-        <v>13.014705657958984</v>
-      </c>
-      <c r="E8" s="5">
-        <v>17.34375</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9.9038457870483398</v>
-      </c>
-      <c r="G8" s="5">
-        <v>12.184210777282715</v>
-      </c>
-      <c r="H8" s="5">
-        <v>16.619565963745117</v>
-      </c>
-      <c r="I8" s="5">
-        <v>18.553571701049805</v>
-      </c>
-      <c r="J8" s="5">
-        <v>14.416666984558105</v>
-      </c>
-      <c r="K8" s="5">
-        <v>15.427083015441895</v>
-      </c>
-      <c r="L8" s="5">
-        <v>15.285714149475098</v>
-      </c>
-      <c r="M8" s="5">
-        <v>7.6041665077209473</v>
-      </c>
-      <c r="N8" s="5">
-        <v>16.446428298950195</v>
-      </c>
-      <c r="O8" s="5">
-        <v>5.8636364936828613</v>
-      </c>
-      <c r="P8" s="5">
-        <v>7.15625</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>15.774999618530273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>18.735294342041016</v>
-      </c>
-      <c r="C9" s="5">
-        <v>11.227272987365723</v>
-      </c>
-      <c r="D9" s="5">
-        <v>13.176470756530762</v>
-      </c>
-      <c r="E9" s="5">
-        <v>16.791666030883789</v>
-      </c>
-      <c r="F9" s="5">
-        <v>10.269230842590332</v>
-      </c>
-      <c r="G9" s="5">
-        <v>12.151315689086914</v>
-      </c>
-      <c r="H9" s="5">
-        <v>17.195652008056641</v>
-      </c>
-      <c r="I9" s="5">
-        <v>18.678571701049805</v>
-      </c>
-      <c r="J9" s="5">
-        <v>15.216666221618652</v>
-      </c>
-      <c r="K9" s="5">
-        <v>15.6875</v>
-      </c>
-      <c r="L9" s="5">
-        <v>16.047618865966797</v>
-      </c>
-      <c r="M9" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="N9" s="5">
-        <v>16.375</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5.6363635063171387</v>
-      </c>
-      <c r="P9" s="5">
-        <v>7.53125</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>16.225000381469727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>18.323530197143555</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10.681818008422852</v>
-      </c>
-      <c r="D10" s="5">
-        <v>13.691176414489746</v>
-      </c>
-      <c r="E10" s="5">
-        <v>16.75</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10.84615421295166</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12.184210777282715</v>
-      </c>
-      <c r="H10" s="5">
-        <v>17.032608032226563</v>
-      </c>
-      <c r="I10" s="5">
-        <v>18.053571701049805</v>
-      </c>
-      <c r="J10" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>15.979166984558105</v>
-      </c>
-      <c r="L10" s="5">
-        <v>16.809524536132813</v>
-      </c>
-      <c r="M10" s="5">
-        <v>6.375</v>
-      </c>
-      <c r="N10" s="5">
-        <v>16.732143402099609</v>
-      </c>
-      <c r="O10" s="5">
-        <v>4.8409090042114258</v>
-      </c>
-      <c r="P10" s="5">
-        <v>7.84375</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>16.524999618530273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>18.073530197143555</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9.7045450210571289</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12.411765098571777</v>
-      </c>
-      <c r="E11" s="5">
-        <v>16.885416030883789</v>
-      </c>
-      <c r="F11" s="5">
-        <v>9.7115383148193359</v>
-      </c>
-      <c r="G11" s="5">
-        <v>12.388157844543457</v>
-      </c>
-      <c r="H11" s="5">
-        <v>17.565217971801758</v>
-      </c>
-      <c r="I11" s="5">
-        <v>18.178571701049805</v>
-      </c>
-      <c r="J11" s="5">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5">
-        <v>15.854166984558105</v>
-      </c>
-      <c r="L11" s="5">
-        <v>17.285715103149414</v>
-      </c>
-      <c r="M11" s="5">
-        <v>7.125</v>
-      </c>
-      <c r="N11" s="5">
-        <v>16.303571701049805</v>
-      </c>
-      <c r="O11" s="5">
-        <v>4.6818180084228516</v>
-      </c>
-      <c r="P11" s="5">
-        <v>7.84375</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>17.100000381469727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>17.014705657958984</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10.068181991577148</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11.70588207244873</v>
-      </c>
-      <c r="E12" s="5">
-        <v>15.15625</v>
-      </c>
-      <c r="F12" s="5">
-        <v>9.0961542129516602</v>
-      </c>
-      <c r="G12" s="5">
-        <v>11.572368621826172</v>
-      </c>
-      <c r="H12" s="5">
-        <v>16.456521987915039</v>
-      </c>
-      <c r="I12" s="5">
-        <v>16.839284896850586</v>
-      </c>
-      <c r="J12" s="5">
-        <v>14.683333396911621</v>
-      </c>
-      <c r="K12" s="5">
-        <v>14.8125</v>
-      </c>
-      <c r="L12" s="5">
-        <v>17.511905670166016</v>
-      </c>
-      <c r="M12" s="5">
-        <v>6.625</v>
-      </c>
-      <c r="N12" s="5">
-        <v>14.696428298950195</v>
-      </c>
-      <c r="O12" s="5">
-        <v>6.2045454978942871</v>
-      </c>
-      <c r="P12" s="5">
-        <v>7.625</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>15.850000381469727</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/raw/experimento_2.xlsx
+++ b/data/raw/experimento_2.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eileenltipoe/Desktop/CORE/Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA4D1BA-50AC-4A40-B63B-F36C83EA218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1220" windowWidth="27900" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public goods contributions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Period</t>
   </si>
@@ -82,11 +92,14 @@
   <si>
     <t>Contributions with punishment (Figure 2A in Herrmann, Thoni, and Gachter (2008))</t>
   </si>
+  <si>
+    <t>Promedio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
@@ -201,7 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,20 +240,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,39 +591,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="2" customWidth="1"/>
     <col min="12" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -661,8 +675,11 @@
       <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -714,8 +731,12 @@
       <c r="Q3" s="5">
         <v>8.2249999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="11">
+        <f>AVERAGE(B3:Q3)</f>
+        <v>10.578313438586228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -767,8 +788,12 @@
       <c r="Q4" s="5">
         <v>7.3250000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R12" si="0">AVERAGE(B4:Q4)</f>
+        <v>10.628398360230456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -820,8 +845,12 @@
       <c r="Q5" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>10.407079253477526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -873,8 +902,12 @@
       <c r="Q6" s="5">
         <v>5.9749999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>9.8130329021537595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -926,8 +959,12 @@
       <c r="Q7" s="5">
         <v>5.4249999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3054334416439879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -979,8 +1016,12 @@
       <c r="Q8" s="5">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>8.4548442759083748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1032,8 +1073,12 @@
       <c r="Q9" s="5">
         <v>4.2750000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>7.837567790116899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1085,8 +1130,12 @@
       <c r="Q10" s="5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="11">
+        <f t="shared" si="0"/>
+        <v>7.3763879591549699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1138,8 +1187,12 @@
       <c r="Q11" s="5">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3929854903134569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1191,13 +1244,17 @@
       <c r="Q12" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="11">
+        <f t="shared" si="0"/>
+        <v>4.383768522989878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1306,11 @@
       <c r="Q16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -1302,8 +1362,12 @@
       <c r="Q17" s="5">
         <v>7.8499999046325684</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="11">
+        <f>AVERAGE(B17:Q17)</f>
+        <v>10.638759195804596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -1355,8 +1419,12 @@
       <c r="Q18" s="5">
         <v>10.475000381469727</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="11">
+        <f>AVERAGE(B18:Q18)</f>
+        <v>11.954793989658356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -1408,8 +1476,12 @@
       <c r="Q19" s="5">
         <v>12.800000190734863</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="11">
+        <f t="shared" ref="R18:R26" si="1">AVERAGE(B19:Q19)</f>
+        <v>12.664337038993835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>4</v>
       </c>
@@ -1461,8 +1533,12 @@
       <c r="Q20" s="5">
         <v>13.574999809265137</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="11">
+        <f t="shared" si="1"/>
+        <v>12.966661810874939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>5</v>
       </c>
@@ -1514,13 +1590,17 @@
       <c r="Q21" s="5">
         <v>15.050000190734863</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="11">
+        <f t="shared" si="1"/>
+        <v>13.331636130809784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>6</v>
       </c>
       <c r="B22" s="5">
-        <v>18.691177368164062</v>
+        <v>18.691177368164063</v>
       </c>
       <c r="C22" s="5">
         <v>11.75</v>
@@ -1567,8 +1647,12 @@
       <c r="Q22" s="5">
         <v>15.774999618530273</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="11">
+        <f t="shared" si="1"/>
+        <v>13.502235770225525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>7</v>
       </c>
@@ -1620,8 +1704,12 @@
       <c r="Q23" s="5">
         <v>16.225000381469727</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="11">
+        <f t="shared" si="1"/>
+        <v>13.574679583311081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>8</v>
       </c>
@@ -1644,7 +1732,7 @@
         <v>12.184210777282715</v>
       </c>
       <c r="H24" s="5">
-        <v>17.032608032226562</v>
+        <v>17.032608032226563</v>
       </c>
       <c r="I24" s="5">
         <v>18.053571701049805</v>
@@ -1656,7 +1744,7 @@
         <v>15.979166984558105</v>
       </c>
       <c r="L24" s="5">
-        <v>16.809524536132812</v>
+        <v>16.809524536132813</v>
       </c>
       <c r="M24" s="5">
         <v>6.375</v>
@@ -1673,8 +1761,12 @@
       <c r="Q24" s="5">
         <v>16.524999618530273</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="11">
+        <f t="shared" si="1"/>
+        <v>13.635535180568695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>9</v>
       </c>
@@ -1726,8 +1818,12 @@
       <c r="Q25" s="5">
         <v>17.100000381469727</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="11">
+        <f t="shared" si="1"/>
+        <v>13.569547772407532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>10</v>
       </c>
@@ -1779,33 +1875,37 @@
       <c r="Q26" s="5">
         <v>15.850000381469727</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="11">
+        <f t="shared" si="1"/>
+        <v>12.86987891793251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="D33:E35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:E35">
     <sortCondition ref="D33:D35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/raw/experimento_2.xlsx
+++ b/data/raw/experimento_2.xlsx
@@ -8,24 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA4D1BA-50AC-4A40-B63B-F36C83EA218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919ED325-3FFB-4F5D-9AF3-5E67366402C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public goods contributions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140000"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Period</t>
   </si>
@@ -91,9 +82,6 @@
   </si>
   <si>
     <t>Contributions with punishment (Figure 2A in Herrmann, Thoni, and Gachter (2008))</t>
-  </si>
-  <si>
-    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -214,7 +202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,7 +228,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -592,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,12 +605,12 @@
     <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -675,11 +662,8 @@
       <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -731,12 +715,8 @@
       <c r="Q3" s="5">
         <v>8.2249999999999996</v>
       </c>
-      <c r="R3" s="11">
-        <f>AVERAGE(B3:Q3)</f>
-        <v>10.578313438586228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -788,12 +768,8 @@
       <c r="Q4" s="5">
         <v>7.3250000000000002</v>
       </c>
-      <c r="R4" s="11">
-        <f t="shared" ref="R4:R12" si="0">AVERAGE(B4:Q4)</f>
-        <v>10.628398360230456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -845,12 +821,8 @@
       <c r="Q5" s="5">
         <v>6.25</v>
       </c>
-      <c r="R5" s="11">
-        <f t="shared" si="0"/>
-        <v>10.407079253477526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -902,12 +874,8 @@
       <c r="Q6" s="5">
         <v>5.9749999999999996</v>
       </c>
-      <c r="R6" s="11">
-        <f t="shared" si="0"/>
-        <v>9.8130329021537595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -959,12 +927,8 @@
       <c r="Q7" s="5">
         <v>5.4249999999999998</v>
       </c>
-      <c r="R7" s="11">
-        <f t="shared" si="0"/>
-        <v>9.3054334416439879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1016,12 +980,8 @@
       <c r="Q8" s="5">
         <v>5.05</v>
       </c>
-      <c r="R8" s="11">
-        <f t="shared" si="0"/>
-        <v>8.4548442759083748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1073,12 +1033,8 @@
       <c r="Q9" s="5">
         <v>4.2750000000000004</v>
       </c>
-      <c r="R9" s="11">
-        <f t="shared" si="0"/>
-        <v>7.837567790116899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1130,12 +1086,8 @@
       <c r="Q10" s="5">
         <v>3.2</v>
       </c>
-      <c r="R10" s="11">
-        <f t="shared" si="0"/>
-        <v>7.3763879591549699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1187,12 +1139,8 @@
       <c r="Q11" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R11" s="11">
-        <f t="shared" si="0"/>
-        <v>6.3929854903134569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1244,17 +1192,13 @@
       <c r="Q12" s="5">
         <v>1.3</v>
       </c>
-      <c r="R12" s="11">
-        <f t="shared" si="0"/>
-        <v>4.383768522989878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -1306,11 +1250,8 @@
       <c r="Q16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -1362,12 +1303,8 @@
       <c r="Q17" s="5">
         <v>7.8499999046325684</v>
       </c>
-      <c r="R17" s="11">
-        <f>AVERAGE(B17:Q17)</f>
-        <v>10.638759195804596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -1419,12 +1356,8 @@
       <c r="Q18" s="5">
         <v>10.475000381469727</v>
       </c>
-      <c r="R18" s="11">
-        <f>AVERAGE(B18:Q18)</f>
-        <v>11.954793989658356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -1476,12 +1409,8 @@
       <c r="Q19" s="5">
         <v>12.800000190734863</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" ref="R18:R26" si="1">AVERAGE(B19:Q19)</f>
-        <v>12.664337038993835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>4</v>
       </c>
@@ -1533,12 +1462,8 @@
       <c r="Q20" s="5">
         <v>13.574999809265137</v>
       </c>
-      <c r="R20" s="11">
-        <f t="shared" si="1"/>
-        <v>12.966661810874939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>5</v>
       </c>
@@ -1590,12 +1515,8 @@
       <c r="Q21" s="5">
         <v>15.050000190734863</v>
       </c>
-      <c r="R21" s="11">
-        <f t="shared" si="1"/>
-        <v>13.331636130809784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>6</v>
       </c>
@@ -1647,12 +1568,8 @@
       <c r="Q22" s="5">
         <v>15.774999618530273</v>
       </c>
-      <c r="R22" s="11">
-        <f t="shared" si="1"/>
-        <v>13.502235770225525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>7</v>
       </c>
@@ -1704,12 +1621,8 @@
       <c r="Q23" s="5">
         <v>16.225000381469727</v>
       </c>
-      <c r="R23" s="11">
-        <f t="shared" si="1"/>
-        <v>13.574679583311081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>8</v>
       </c>
@@ -1761,12 +1674,8 @@
       <c r="Q24" s="5">
         <v>16.524999618530273</v>
       </c>
-      <c r="R24" s="11">
-        <f t="shared" si="1"/>
-        <v>13.635535180568695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>9</v>
       </c>
@@ -1818,12 +1727,8 @@
       <c r="Q25" s="5">
         <v>17.100000381469727</v>
       </c>
-      <c r="R25" s="11">
-        <f t="shared" si="1"/>
-        <v>13.569547772407532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>10</v>
       </c>
@@ -1875,18 +1780,14 @@
       <c r="Q26" s="5">
         <v>15.850000381469727</v>
       </c>
-      <c r="R26" s="11">
-        <f t="shared" si="1"/>
-        <v>12.86987891793251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
